--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Robo2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Robo2-Robo2.xlsx
@@ -82,7 +82,7 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Robo2</t>
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="H2">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="I2">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="J2">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +549,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N2">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O2">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P2">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q2">
-        <v>1.568817205592111</v>
+        <v>0.1307106895471111</v>
       </c>
       <c r="R2">
-        <v>14.119354850329</v>
+        <v>1.176396205924</v>
       </c>
       <c r="S2">
-        <v>0.8280751723657307</v>
+        <v>0.5851088699112796</v>
       </c>
       <c r="T2">
-        <v>0.8280751723657307</v>
+        <v>0.5875153950252426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="H3">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="I3">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="J3">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,22 +617,22 @@
         <v>0.324603</v>
       </c>
       <c r="O3">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P3">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q3">
-        <v>0.135524385391</v>
+        <v>0.03911891740599999</v>
       </c>
       <c r="R3">
-        <v>1.219719468519</v>
+        <v>0.3520702566539999</v>
       </c>
       <c r="S3">
-        <v>0.07153438806789203</v>
+        <v>0.1751105868608221</v>
       </c>
       <c r="T3">
-        <v>0.07153438806789204</v>
+        <v>0.1758308084241446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,46 +655,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="H4">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="I4">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="J4">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N4">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O4">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P4">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q4">
-        <v>0.01965920442788889</v>
+        <v>0.001050994842</v>
       </c>
       <c r="R4">
-        <v>0.176932839851</v>
+        <v>0.006305969051999999</v>
       </c>
       <c r="S4">
-        <v>0.01037679790683645</v>
+        <v>0.00470463744331762</v>
       </c>
       <c r="T4">
-        <v>0.01037679790683645</v>
+        <v>0.003149324929769523</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.324603</v>
       </c>
       <c r="I5">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="J5">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N5">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O5">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P5">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q5">
-        <v>0.135524385391</v>
+        <v>0.03911891740599999</v>
       </c>
       <c r="R5">
-        <v>1.219719468519</v>
+        <v>0.3520702566539999</v>
       </c>
       <c r="S5">
-        <v>0.07153438806789203</v>
+        <v>0.1751105868608221</v>
       </c>
       <c r="T5">
-        <v>0.07153438806789204</v>
+        <v>0.1758308084241446</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>0.324603</v>
       </c>
       <c r="I6">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="J6">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,10 +803,10 @@
         <v>0.324603</v>
       </c>
       <c r="O6">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P6">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q6">
         <v>0.011707456401</v>
@@ -815,10 +815,10 @@
         <v>0.105367107609</v>
       </c>
       <c r="S6">
-        <v>0.006179594373815745</v>
+        <v>0.05240685829184416</v>
       </c>
       <c r="T6">
-        <v>0.006179594373815748</v>
+        <v>0.05262240522184088</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,40 +847,40 @@
         <v>0.324603</v>
       </c>
       <c r="I7">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="J7">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N7">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O7">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P7">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q7">
-        <v>0.001698286829</v>
+        <v>0.0003145403069999999</v>
       </c>
       <c r="R7">
-        <v>0.015284581461</v>
+        <v>0.001887241842</v>
       </c>
       <c r="S7">
-        <v>0.0008964136507668199</v>
+        <v>0.00140799749590476</v>
       </c>
       <c r="T7">
-        <v>0.0008964136507668203</v>
+        <v>0.0009425256820170574</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,19 +900,19 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="H8">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="I8">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="J8">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -921,28 +921,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.252524333333333</v>
+        <v>0.3615393333333333</v>
       </c>
       <c r="N8">
-        <v>3.757573</v>
+        <v>1.084618</v>
       </c>
       <c r="O8">
-        <v>0.9099863583404593</v>
+        <v>0.7649240942154193</v>
       </c>
       <c r="P8">
-        <v>0.9099863583404593</v>
+        <v>0.7664955283791567</v>
       </c>
       <c r="Q8">
-        <v>0.01965920442788889</v>
+        <v>0.001050994842</v>
       </c>
       <c r="R8">
-        <v>0.176932839851</v>
+        <v>0.006305969051999999</v>
       </c>
       <c r="S8">
-        <v>0.01037679790683645</v>
+        <v>0.00470463744331762</v>
       </c>
       <c r="T8">
-        <v>0.01037679790683645</v>
+        <v>0.003149324929769523</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,19 +962,19 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="H9">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="I9">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="J9">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,22 +989,22 @@
         <v>0.324603</v>
       </c>
       <c r="O9">
-        <v>0.0786103960924746</v>
+        <v>0.228925442648571</v>
       </c>
       <c r="P9">
-        <v>0.07861039609247461</v>
+        <v>0.2293957393280025</v>
       </c>
       <c r="Q9">
-        <v>0.001698286829</v>
+        <v>0.0003145403069999999</v>
       </c>
       <c r="R9">
-        <v>0.015284581461</v>
+        <v>0.001887241842</v>
       </c>
       <c r="S9">
-        <v>0.0008964136507668199</v>
+        <v>0.00140799749590476</v>
       </c>
       <c r="T9">
-        <v>0.0008964136507668203</v>
+        <v>0.0009425256820170574</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,49 +1024,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="H10">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="I10">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="J10">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.01569566666666667</v>
+        <v>0.002907</v>
       </c>
       <c r="N10">
-        <v>0.047087</v>
+        <v>0.005814</v>
       </c>
       <c r="O10">
-        <v>0.01140324556706608</v>
+        <v>0.006150463136009796</v>
       </c>
       <c r="P10">
-        <v>0.01140324556706609</v>
+        <v>0.004108732292840814</v>
       </c>
       <c r="Q10">
-        <v>0.0002463539521111111</v>
+        <v>8.450648999999999E-06</v>
       </c>
       <c r="R10">
-        <v>0.002217185569</v>
+        <v>3.3802596E-05</v>
       </c>
       <c r="S10">
-        <v>0.0001300340094628123</v>
+        <v>3.782819678741545E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001300340094628124</v>
+        <v>1.688168105423293E-05</v>
       </c>
     </row>
   </sheetData>
